--- a/21 Schema Notes/Technical Seminar/Synopsis Guide Alloted/Schedule-Technical Seminar 2024-25.xlsx
+++ b/21 Schema Notes/Technical Seminar/Synopsis Guide Alloted/Schedule-Technical Seminar 2024-25.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ACHARYA INSTITUTE\2024-2025\Technical Seminar\Required Doc\Student guide allotment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College\8th Semester\21 Schema Notes\Technical Seminar\Synopsis Guide Alloted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE520182-E455-43A2-9C38-8C12F83FD3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4EF298-9CAA-4293-BFEC-65B8D0D18FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="5" r:id="rId1"/>
@@ -2292,7 +2292,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2329,8 +2329,15 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="32">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2514,6 +2521,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -2740,7 +2759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2933,9 +2952,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2957,41 +3012,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3253,69 +3281,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB153D4B-9DE5-49D8-B1D2-B34A7D323F23}">
   <dimension ref="A1:H229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="K222" sqref="K222"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.42578125" style="57" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.44140625" style="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="65"/>
-      <c r="B1" s="75" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="77"/>
+      <c r="B1" s="64" t="s">
         <v>699</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="77"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="78" t="s">
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="66"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="78"/>
+      <c r="B2" s="67" t="s">
         <v>698</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
-      <c r="B3" s="81" t="s">
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="69"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="78"/>
+      <c r="B3" s="70" t="s">
         <v>707</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="83"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="72"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
       <c r="G4" s="59"/>
       <c r="H4" s="60"/>
     </row>
-    <row r="5" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -3341,7 +3369,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -3360,14 +3388,14 @@
       <c r="F6" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="G6" s="70" t="s">
+      <c r="G6" s="82" t="s">
         <v>710</v>
       </c>
-      <c r="H6" s="70" t="s">
+      <c r="H6" s="82" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -3386,10 +3414,10 @@
       <c r="F7" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
@@ -3408,10 +3436,10 @@
       <c r="F8" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>27</v>
       </c>
@@ -3430,32 +3458,32 @@
       <c r="F9" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="84" t="s">
         <v>704</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>58</v>
       </c>
@@ -3474,10 +3502,10 @@
       <c r="F11" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>61</v>
       </c>
@@ -3503,7 +3531,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>64</v>
       </c>
@@ -3525,7 +3553,7 @@
       <c r="G13" s="62"/>
       <c r="H13" s="62"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>481</v>
       </c>
@@ -3547,7 +3575,7 @@
       <c r="G14" s="62"/>
       <c r="H14" s="62"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>484</v>
       </c>
@@ -3569,7 +3597,7 @@
       <c r="G15" s="63"/>
       <c r="H15" s="63"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>6</v>
       </c>
@@ -3595,7 +3623,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>11</v>
       </c>
@@ -3617,7 +3645,7 @@
       <c r="G17" s="62"/>
       <c r="H17" s="62"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>14</v>
       </c>
@@ -3639,7 +3667,7 @@
       <c r="G18" s="62"/>
       <c r="H18" s="62"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>90</v>
       </c>
@@ -3661,7 +3689,7 @@
       <c r="G19" s="62"/>
       <c r="H19" s="62"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>94</v>
       </c>
@@ -3683,7 +3711,7 @@
       <c r="G20" s="62"/>
       <c r="H20" s="62"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>97</v>
       </c>
@@ -3705,7 +3733,7 @@
       <c r="G21" s="62"/>
       <c r="H21" s="62"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>100</v>
       </c>
@@ -3727,7 +3755,7 @@
       <c r="G22" s="63"/>
       <c r="H22" s="63"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>166</v>
       </c>
@@ -3753,7 +3781,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>171</v>
       </c>
@@ -3775,7 +3803,7 @@
       <c r="G24" s="62"/>
       <c r="H24" s="62"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>174</v>
       </c>
@@ -3797,7 +3825,7 @@
       <c r="G25" s="62"/>
       <c r="H25" s="62"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>177</v>
       </c>
@@ -3819,7 +3847,7 @@
       <c r="G26" s="62"/>
       <c r="H26" s="62"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>399</v>
       </c>
@@ -3841,7 +3869,7 @@
       <c r="G27" s="62"/>
       <c r="H27" s="62"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>402</v>
       </c>
@@ -3863,7 +3891,7 @@
       <c r="G28" s="62"/>
       <c r="H28" s="62"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>405</v>
       </c>
@@ -3885,7 +3913,7 @@
       <c r="G29" s="62"/>
       <c r="H29" s="62"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>408</v>
       </c>
@@ -3907,7 +3935,7 @@
       <c r="G30" s="63"/>
       <c r="H30" s="63"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
         <v>342</v>
       </c>
@@ -3926,14 +3954,14 @@
       <c r="F31" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="G31" s="64" t="s">
+      <c r="G31" s="73" t="s">
         <v>723</v>
       </c>
       <c r="H31" s="61" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>345</v>
       </c>
@@ -3952,10 +3980,10 @@
       <c r="F32" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="G32" s="64"/>
+      <c r="G32" s="73"/>
       <c r="H32" s="62"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
         <v>348</v>
       </c>
@@ -3974,10 +4002,10 @@
       <c r="F33" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="G33" s="64"/>
+      <c r="G33" s="73"/>
       <c r="H33" s="62"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
         <v>351</v>
       </c>
@@ -3996,10 +4024,10 @@
       <c r="F34" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="G34" s="64"/>
+      <c r="G34" s="73"/>
       <c r="H34" s="62"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
         <v>363</v>
       </c>
@@ -4018,10 +4046,10 @@
       <c r="F35" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="G35" s="64"/>
+      <c r="G35" s="73"/>
       <c r="H35" s="62"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
         <v>366</v>
       </c>
@@ -4043,11 +4071,11 @@
       <c r="G36" s="61" t="s">
         <v>724</v>
       </c>
-      <c r="H36" s="64" t="s">
+      <c r="H36" s="73" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
         <v>369</v>
       </c>
@@ -4067,9 +4095,9 @@
         <v>118</v>
       </c>
       <c r="G37" s="62"/>
-      <c r="H37" s="64"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H37" s="73"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
         <v>372</v>
       </c>
@@ -4089,9 +4117,9 @@
         <v>118</v>
       </c>
       <c r="G38" s="62"/>
-      <c r="H38" s="64"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H38" s="73"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
         <v>532</v>
       </c>
@@ -4111,9 +4139,9 @@
         <v>118</v>
       </c>
       <c r="G39" s="62"/>
-      <c r="H39" s="64"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H39" s="73"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
         <v>535</v>
       </c>
@@ -4133,9 +4161,9 @@
         <v>118</v>
       </c>
       <c r="G40" s="63"/>
-      <c r="H40" s="64"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H40" s="73"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
         <v>273</v>
       </c>
@@ -4161,7 +4189,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
         <v>277</v>
       </c>
@@ -4183,7 +4211,7 @@
       <c r="G42" s="62"/>
       <c r="H42" s="62"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
         <v>280</v>
       </c>
@@ -4205,7 +4233,7 @@
       <c r="G43" s="62"/>
       <c r="H43" s="62"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
         <v>283</v>
       </c>
@@ -4227,7 +4255,7 @@
       <c r="G44" s="62"/>
       <c r="H44" s="62"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
         <v>307</v>
       </c>
@@ -4249,7 +4277,7 @@
       <c r="G45" s="62"/>
       <c r="H45" s="62"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="16" t="s">
         <v>311</v>
       </c>
@@ -4271,7 +4299,7 @@
       <c r="G46" s="63"/>
       <c r="H46" s="63"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="16" t="s">
         <v>314</v>
       </c>
@@ -4297,7 +4325,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
         <v>543</v>
       </c>
@@ -4319,7 +4347,7 @@
       <c r="G48" s="62"/>
       <c r="H48" s="62"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="16" t="s">
         <v>546</v>
       </c>
@@ -4341,7 +4369,7 @@
       <c r="G49" s="62"/>
       <c r="H49" s="62"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
         <v>549</v>
       </c>
@@ -4363,7 +4391,7 @@
       <c r="G50" s="63"/>
       <c r="H50" s="63"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>84</v>
       </c>
@@ -4389,7 +4417,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>87</v>
       </c>
@@ -4411,7 +4439,7 @@
       <c r="G52" s="62"/>
       <c r="H52" s="62"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>103</v>
       </c>
@@ -4433,7 +4461,7 @@
       <c r="G53" s="62"/>
       <c r="H53" s="62"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>106</v>
       </c>
@@ -4455,7 +4483,7 @@
       <c r="G54" s="62"/>
       <c r="H54" s="62"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>109</v>
       </c>
@@ -4477,7 +4505,7 @@
       <c r="G55" s="63"/>
       <c r="H55" s="63"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>112</v>
       </c>
@@ -4503,7 +4531,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>115</v>
       </c>
@@ -4525,7 +4553,7 @@
       <c r="G57" s="62"/>
       <c r="H57" s="62"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>119</v>
       </c>
@@ -4547,7 +4575,7 @@
       <c r="G58" s="62"/>
       <c r="H58" s="62"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>122</v>
       </c>
@@ -4569,7 +4597,7 @@
       <c r="G59" s="62"/>
       <c r="H59" s="62"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>125</v>
       </c>
@@ -4591,7 +4619,7 @@
       <c r="G60" s="63"/>
       <c r="H60" s="63"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="20" t="s">
         <v>140</v>
       </c>
@@ -4617,7 +4645,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="20" t="s">
         <v>143</v>
       </c>
@@ -4639,7 +4667,7 @@
       <c r="G62" s="62"/>
       <c r="H62" s="62"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="20" t="s">
         <v>146</v>
       </c>
@@ -4661,7 +4689,7 @@
       <c r="G63" s="62"/>
       <c r="H63" s="62"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="20" t="s">
         <v>149</v>
       </c>
@@ -4683,7 +4711,7 @@
       <c r="G64" s="62"/>
       <c r="H64" s="62"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="20" t="s">
         <v>490</v>
       </c>
@@ -4705,7 +4733,7 @@
       <c r="G65" s="63"/>
       <c r="H65" s="63"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="20" t="s">
         <v>493</v>
       </c>
@@ -4731,7 +4759,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="20" t="s">
         <v>496</v>
       </c>
@@ -4753,7 +4781,7 @@
       <c r="G67" s="62"/>
       <c r="H67" s="62"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="20" t="s">
         <v>499</v>
       </c>
@@ -4775,7 +4803,7 @@
       <c r="G68" s="63"/>
       <c r="H68" s="63"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="23" t="s">
         <v>128</v>
       </c>
@@ -4801,7 +4829,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="23" t="s">
         <v>131</v>
       </c>
@@ -4823,7 +4851,7 @@
       <c r="G70" s="62"/>
       <c r="H70" s="62"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="23" t="s">
         <v>134</v>
       </c>
@@ -4845,7 +4873,7 @@
       <c r="G71" s="62"/>
       <c r="H71" s="62"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="23" t="s">
         <v>137</v>
       </c>
@@ -4867,7 +4895,7 @@
       <c r="G72" s="63"/>
       <c r="H72" s="63"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="23" t="s">
         <v>192</v>
       </c>
@@ -4893,7 +4921,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="23" t="s">
         <v>195</v>
       </c>
@@ -4915,7 +4943,7 @@
       <c r="G74" s="62"/>
       <c r="H74" s="62"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="23" t="s">
         <v>198</v>
       </c>
@@ -4937,7 +4965,7 @@
       <c r="G75" s="62"/>
       <c r="H75" s="62"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="23" t="s">
         <v>201</v>
       </c>
@@ -4959,7 +4987,7 @@
       <c r="G76" s="63"/>
       <c r="H76" s="63"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="13" t="s">
         <v>44</v>
       </c>
@@ -4985,7 +5013,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="13" t="s">
         <v>49</v>
       </c>
@@ -5007,7 +5035,7 @@
       <c r="G78" s="62"/>
       <c r="H78" s="62"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="13" t="s">
         <v>52</v>
       </c>
@@ -5029,7 +5057,7 @@
       <c r="G79" s="62"/>
       <c r="H79" s="62"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="13" t="s">
         <v>520</v>
       </c>
@@ -5051,7 +5079,7 @@
       <c r="G80" s="63"/>
       <c r="H80" s="63"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="13" t="s">
         <v>523</v>
       </c>
@@ -5077,7 +5105,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="13" t="s">
         <v>526</v>
       </c>
@@ -5099,7 +5127,7 @@
       <c r="G82" s="62"/>
       <c r="H82" s="62"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="13" t="s">
         <v>529</v>
       </c>
@@ -5121,7 +5149,7 @@
       <c r="G83" s="63"/>
       <c r="H83" s="63"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="26" t="s">
         <v>30</v>
       </c>
@@ -5147,7 +5175,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="26" t="s">
         <v>35</v>
       </c>
@@ -5169,7 +5197,7 @@
       <c r="G85" s="62"/>
       <c r="H85" s="62"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="26" t="s">
         <v>38</v>
       </c>
@@ -5191,7 +5219,7 @@
       <c r="G86" s="62"/>
       <c r="H86" s="62"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="26" t="s">
         <v>41</v>
       </c>
@@ -5213,7 +5241,7 @@
       <c r="G87" s="63"/>
       <c r="H87" s="63"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="26" t="s">
         <v>67</v>
       </c>
@@ -5239,7 +5267,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="26" t="s">
         <v>70</v>
       </c>
@@ -5261,7 +5289,7 @@
       <c r="G89" s="62"/>
       <c r="H89" s="62"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="26" t="s">
         <v>73</v>
       </c>
@@ -5283,7 +5311,7 @@
       <c r="G90" s="62"/>
       <c r="H90" s="62"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="26" t="s">
         <v>76</v>
       </c>
@@ -5305,7 +5333,7 @@
       <c r="G91" s="63"/>
       <c r="H91" s="63"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="13" t="s">
         <v>254</v>
       </c>
@@ -5331,7 +5359,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="13" t="s">
         <v>258</v>
       </c>
@@ -5353,7 +5381,7 @@
       <c r="G93" s="62"/>
       <c r="H93" s="62"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="13" t="s">
         <v>261</v>
       </c>
@@ -5375,7 +5403,7 @@
       <c r="G94" s="62"/>
       <c r="H94" s="62"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="13" t="s">
         <v>387</v>
       </c>
@@ -5397,7 +5425,7 @@
       <c r="G95" s="62"/>
       <c r="H95" s="62"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="13" t="s">
         <v>390</v>
       </c>
@@ -5419,7 +5447,7 @@
       <c r="G96" s="62"/>
       <c r="H96" s="62"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="13" t="s">
         <v>393</v>
       </c>
@@ -5441,7 +5469,7 @@
       <c r="G97" s="63"/>
       <c r="H97" s="63"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="13" t="s">
         <v>396</v>
       </c>
@@ -5463,11 +5491,11 @@
       <c r="G98" s="61" t="s">
         <v>709</v>
       </c>
-      <c r="H98" s="72" t="s">
+      <c r="H98" s="75" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="13" t="s">
         <v>615</v>
       </c>
@@ -5487,9 +5515,9 @@
         <v>257</v>
       </c>
       <c r="G99" s="62"/>
-      <c r="H99" s="73"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H99" s="76"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="13" t="s">
         <v>618</v>
       </c>
@@ -5509,9 +5537,9 @@
         <v>257</v>
       </c>
       <c r="G100" s="62"/>
-      <c r="H100" s="73"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H100" s="76"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="13" t="s">
         <v>621</v>
       </c>
@@ -5531,9 +5559,9 @@
         <v>257</v>
       </c>
       <c r="G101" s="62"/>
-      <c r="H101" s="73"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H101" s="76"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="13" t="s">
         <v>624</v>
       </c>
@@ -5553,9 +5581,9 @@
         <v>257</v>
       </c>
       <c r="G102" s="63"/>
-      <c r="H102" s="73"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H102" s="76"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="23" t="s">
         <v>423</v>
       </c>
@@ -5581,7 +5609,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="23" t="s">
         <v>427</v>
       </c>
@@ -5603,7 +5631,7 @@
       <c r="G104" s="62"/>
       <c r="H104" s="62"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="23" t="s">
         <v>430</v>
       </c>
@@ -5625,7 +5653,7 @@
       <c r="G105" s="62"/>
       <c r="H105" s="62"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="23" t="s">
         <v>433</v>
       </c>
@@ -5647,7 +5675,7 @@
       <c r="G106" s="62"/>
       <c r="H106" s="62"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="23" t="s">
         <v>502</v>
       </c>
@@ -5669,7 +5697,7 @@
       <c r="G107" s="63"/>
       <c r="H107" s="63"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="23" t="s">
         <v>505</v>
       </c>
@@ -5695,7 +5723,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="23" t="s">
         <v>508</v>
       </c>
@@ -5717,7 +5745,7 @@
       <c r="G109" s="62"/>
       <c r="H109" s="62"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="23" t="s">
         <v>567</v>
       </c>
@@ -5739,7 +5767,7 @@
       <c r="G110" s="62"/>
       <c r="H110" s="62"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="23" t="s">
         <v>570</v>
       </c>
@@ -5761,7 +5789,7 @@
       <c r="G111" s="62"/>
       <c r="H111" s="62"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="23" t="s">
         <v>573</v>
       </c>
@@ -5783,7 +5811,7 @@
       <c r="G112" s="62"/>
       <c r="H112" s="62"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="23" t="s">
         <v>576</v>
       </c>
@@ -5805,7 +5833,7 @@
       <c r="G113" s="63"/>
       <c r="H113" s="63"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="29" t="s">
         <v>555</v>
       </c>
@@ -5831,7 +5859,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="29" t="s">
         <v>558</v>
       </c>
@@ -5853,7 +5881,7 @@
       <c r="G115" s="62"/>
       <c r="H115" s="62"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="29" t="s">
         <v>561</v>
       </c>
@@ -5875,7 +5903,7 @@
       <c r="G116" s="62"/>
       <c r="H116" s="62"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="29" t="s">
         <v>564</v>
       </c>
@@ -5897,7 +5925,7 @@
       <c r="G117" s="62"/>
       <c r="H117" s="62"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="29" t="s">
         <v>657</v>
       </c>
@@ -5919,7 +5947,7 @@
       <c r="G118" s="63"/>
       <c r="H118" s="63"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="29" t="s">
         <v>660</v>
       </c>
@@ -5945,7 +5973,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="29" t="s">
         <v>663</v>
       </c>
@@ -5967,7 +5995,7 @@
       <c r="G120" s="62"/>
       <c r="H120" s="62"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="29" t="s">
         <v>666</v>
       </c>
@@ -5989,7 +6017,7 @@
       <c r="G121" s="62"/>
       <c r="H121" s="62"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="29" t="s">
         <v>487</v>
       </c>
@@ -6011,7 +6039,7 @@
       <c r="G122" s="62"/>
       <c r="H122" s="62"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="29" t="s">
         <v>511</v>
       </c>
@@ -6033,7 +6061,7 @@
       <c r="G123" s="63"/>
       <c r="H123" s="63"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="32" t="s">
         <v>375</v>
       </c>
@@ -6059,7 +6087,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="32" t="s">
         <v>378</v>
       </c>
@@ -6081,7 +6109,7 @@
       <c r="G125" s="62"/>
       <c r="H125" s="62"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="32" t="s">
         <v>381</v>
       </c>
@@ -6103,7 +6131,7 @@
       <c r="G126" s="62"/>
       <c r="H126" s="62"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="32" t="s">
         <v>384</v>
       </c>
@@ -6125,7 +6153,7 @@
       <c r="G127" s="62"/>
       <c r="H127" s="62"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="32" t="s">
         <v>411</v>
       </c>
@@ -6147,7 +6175,7 @@
       <c r="G128" s="62"/>
       <c r="H128" s="62"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="32" t="s">
         <v>414</v>
       </c>
@@ -6169,7 +6197,7 @@
       <c r="G129" s="63"/>
       <c r="H129" s="63"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="32" t="s">
         <v>417</v>
       </c>
@@ -6195,7 +6223,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="32" t="s">
         <v>420</v>
       </c>
@@ -6217,7 +6245,7 @@
       <c r="G131" s="62"/>
       <c r="H131" s="62"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="32" t="s">
         <v>469</v>
       </c>
@@ -6239,7 +6267,7 @@
       <c r="G132" s="62"/>
       <c r="H132" s="62"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="32" t="s">
         <v>472</v>
       </c>
@@ -6261,7 +6289,7 @@
       <c r="G133" s="62"/>
       <c r="H133" s="62"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="32" t="s">
         <v>475</v>
       </c>
@@ -6283,7 +6311,7 @@
       <c r="G134" s="63"/>
       <c r="H134" s="63"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="13" t="s">
         <v>286</v>
       </c>
@@ -6309,7 +6337,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="13" t="s">
         <v>289</v>
       </c>
@@ -6331,7 +6359,7 @@
       <c r="G136" s="62"/>
       <c r="H136" s="62"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="13" t="s">
         <v>292</v>
       </c>
@@ -6353,7 +6381,7 @@
       <c r="G137" s="62"/>
       <c r="H137" s="62"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="13" t="s">
         <v>329</v>
       </c>
@@ -6375,7 +6403,7 @@
       <c r="G138" s="62"/>
       <c r="H138" s="62"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="13" t="s">
         <v>332</v>
       </c>
@@ -6397,7 +6425,7 @@
       <c r="G139" s="62"/>
       <c r="H139" s="62"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="13" t="s">
         <v>335</v>
       </c>
@@ -6419,7 +6447,7 @@
       <c r="G140" s="63"/>
       <c r="H140" s="63"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="13" t="s">
         <v>338</v>
       </c>
@@ -6445,7 +6473,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="13" t="s">
         <v>627</v>
       </c>
@@ -6467,7 +6495,7 @@
       <c r="G142" s="62"/>
       <c r="H142" s="62"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="13" t="s">
         <v>630</v>
       </c>
@@ -6489,7 +6517,7 @@
       <c r="G143" s="62"/>
       <c r="H143" s="62"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="13" t="s">
         <v>633</v>
       </c>
@@ -6511,7 +6539,7 @@
       <c r="G144" s="62"/>
       <c r="H144" s="62"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="13" t="s">
         <v>636</v>
       </c>
@@ -6533,7 +6561,7 @@
       <c r="G145" s="62"/>
       <c r="H145" s="62"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="13" t="s">
         <v>514</v>
       </c>
@@ -6555,7 +6583,7 @@
       <c r="G146" s="62"/>
       <c r="H146" s="62"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="13" t="s">
         <v>552</v>
       </c>
@@ -6577,7 +6605,7 @@
       <c r="G147" s="63"/>
       <c r="H147" s="63"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="36" t="s">
         <v>217</v>
       </c>
@@ -6603,7 +6631,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="36" t="s">
         <v>220</v>
       </c>
@@ -6625,7 +6653,7 @@
       <c r="G149" s="62"/>
       <c r="H149" s="62"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="36" t="s">
         <v>223</v>
       </c>
@@ -6647,7 +6675,7 @@
       <c r="G150" s="62"/>
       <c r="H150" s="62"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="36" t="s">
         <v>226</v>
       </c>
@@ -6669,7 +6697,7 @@
       <c r="G151" s="62"/>
       <c r="H151" s="62"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="36" t="s">
         <v>594</v>
       </c>
@@ -6691,7 +6719,7 @@
       <c r="G152" s="63"/>
       <c r="H152" s="63"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="36" t="s">
         <v>597</v>
       </c>
@@ -6717,7 +6745,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="36" t="s">
         <v>600</v>
       </c>
@@ -6739,7 +6767,7 @@
       <c r="G154" s="62"/>
       <c r="H154" s="62"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="36" t="s">
         <v>603</v>
       </c>
@@ -6761,7 +6789,7 @@
       <c r="G155" s="62"/>
       <c r="H155" s="62"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="36" t="s">
         <v>606</v>
       </c>
@@ -6783,7 +6811,7 @@
       <c r="G156" s="62"/>
       <c r="H156" s="62"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="36" t="s">
         <v>609</v>
       </c>
@@ -6805,7 +6833,7 @@
       <c r="G157" s="62"/>
       <c r="H157" s="62"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="36" t="s">
         <v>612</v>
       </c>
@@ -6827,7 +6855,7 @@
       <c r="G158" s="63"/>
       <c r="H158" s="63"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="23" t="s">
         <v>448</v>
       </c>
@@ -6853,7 +6881,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="23" t="s">
         <v>451</v>
       </c>
@@ -6875,7 +6903,7 @@
       <c r="G160" s="62"/>
       <c r="H160" s="62"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="23" t="s">
         <v>454</v>
       </c>
@@ -6897,7 +6925,7 @@
       <c r="G161" s="62"/>
       <c r="H161" s="62"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="23" t="s">
         <v>639</v>
       </c>
@@ -6919,7 +6947,7 @@
       <c r="G162" s="62"/>
       <c r="H162" s="62"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="23" t="s">
         <v>642</v>
       </c>
@@ -6941,7 +6969,7 @@
       <c r="G163" s="63"/>
       <c r="H163" s="63"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="23" t="s">
         <v>645</v>
       </c>
@@ -6967,7 +6995,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="23" t="s">
         <v>478</v>
       </c>
@@ -6989,7 +7017,7 @@
       <c r="G165" s="62"/>
       <c r="H165" s="62"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="23" t="s">
         <v>695</v>
       </c>
@@ -7011,7 +7039,7 @@
       <c r="G166" s="63"/>
       <c r="H166" s="63"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="39" t="s">
         <v>180</v>
       </c>
@@ -7037,7 +7065,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="39" t="s">
         <v>183</v>
       </c>
@@ -7059,7 +7087,7 @@
       <c r="G168" s="62"/>
       <c r="H168" s="62"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="39" t="s">
         <v>186</v>
       </c>
@@ -7081,7 +7109,7 @@
       <c r="G169" s="62"/>
       <c r="H169" s="62"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="39" t="s">
         <v>189</v>
       </c>
@@ -7103,7 +7131,7 @@
       <c r="G170" s="62"/>
       <c r="H170" s="62"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="39" t="s">
         <v>457</v>
       </c>
@@ -7125,7 +7153,7 @@
       <c r="G171" s="63"/>
       <c r="H171" s="63"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="39" t="s">
         <v>460</v>
       </c>
@@ -7151,7 +7179,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="39" t="s">
         <v>463</v>
       </c>
@@ -7173,7 +7201,7 @@
       <c r="G173" s="62"/>
       <c r="H173" s="62"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="39" t="s">
         <v>466</v>
       </c>
@@ -7195,7 +7223,7 @@
       <c r="G174" s="63"/>
       <c r="H174" s="63"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="43" t="s">
         <v>204</v>
       </c>
@@ -7221,7 +7249,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="43" t="s">
         <v>208</v>
       </c>
@@ -7243,7 +7271,7 @@
       <c r="G176" s="62"/>
       <c r="H176" s="62"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="43" t="s">
         <v>211</v>
       </c>
@@ -7265,7 +7293,7 @@
       <c r="G177" s="62"/>
       <c r="H177" s="62"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="43" t="s">
         <v>214</v>
       </c>
@@ -7287,7 +7315,7 @@
       <c r="G178" s="62"/>
       <c r="H178" s="62"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="43" t="s">
         <v>354</v>
       </c>
@@ -7309,7 +7337,7 @@
       <c r="G179" s="63"/>
       <c r="H179" s="63"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="43" t="s">
         <v>357</v>
       </c>
@@ -7335,7 +7363,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="43" t="s">
         <v>360</v>
       </c>
@@ -7357,7 +7385,7 @@
       <c r="G181" s="62"/>
       <c r="H181" s="62"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="43" t="s">
         <v>517</v>
       </c>
@@ -7379,7 +7407,7 @@
       <c r="G182" s="62"/>
       <c r="H182" s="62"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="43" t="s">
         <v>692</v>
       </c>
@@ -7401,7 +7429,7 @@
       <c r="G183" s="62"/>
       <c r="H183" s="62"/>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="43" t="s">
         <v>654</v>
       </c>
@@ -7423,7 +7451,7 @@
       <c r="G184" s="63"/>
       <c r="H184" s="63"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="32" t="s">
         <v>264</v>
       </c>
@@ -7449,7 +7477,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="32" t="s">
         <v>267</v>
       </c>
@@ -7471,7 +7499,7 @@
       <c r="G186" s="62"/>
       <c r="H186" s="62"/>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="32" t="s">
         <v>270</v>
       </c>
@@ -7493,7 +7521,7 @@
       <c r="G187" s="62"/>
       <c r="H187" s="62"/>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="32" t="s">
         <v>317</v>
       </c>
@@ -7515,7 +7543,7 @@
       <c r="G188" s="62"/>
       <c r="H188" s="62"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="32" t="s">
         <v>320</v>
       </c>
@@ -7537,7 +7565,7 @@
       <c r="G189" s="63"/>
       <c r="H189" s="63"/>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="32" t="s">
         <v>323</v>
       </c>
@@ -7563,7 +7591,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="32" t="s">
         <v>366</v>
       </c>
@@ -7585,7 +7613,7 @@
       <c r="G191" s="62"/>
       <c r="H191" s="62"/>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="32" t="s">
         <v>540</v>
       </c>
@@ -7607,7 +7635,7 @@
       <c r="G192" s="62"/>
       <c r="H192" s="62"/>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="32" t="s">
         <v>326</v>
       </c>
@@ -7629,7 +7657,7 @@
       <c r="G193" s="63"/>
       <c r="H193" s="63"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="47" t="s">
         <v>579</v>
       </c>
@@ -7655,7 +7683,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="47" t="s">
         <v>582</v>
       </c>
@@ -7677,7 +7705,7 @@
       <c r="G195" s="62"/>
       <c r="H195" s="62"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="47" t="s">
         <v>585</v>
       </c>
@@ -7699,7 +7727,7 @@
       <c r="G196" s="62"/>
       <c r="H196" s="62"/>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="47" t="s">
         <v>588</v>
       </c>
@@ -7721,7 +7749,7 @@
       <c r="G197" s="62"/>
       <c r="H197" s="62"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="47" t="s">
         <v>591</v>
       </c>
@@ -7743,7 +7771,7 @@
       <c r="G198" s="63"/>
       <c r="H198" s="63"/>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="47" t="s">
         <v>669</v>
       </c>
@@ -7769,7 +7797,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="47" t="s">
         <v>672</v>
       </c>
@@ -7791,7 +7819,7 @@
       <c r="G200" s="62"/>
       <c r="H200" s="62"/>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="47" t="s">
         <v>675</v>
       </c>
@@ -7813,7 +7841,7 @@
       <c r="G201" s="62"/>
       <c r="H201" s="62"/>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="47" t="s">
         <v>642</v>
       </c>
@@ -7835,7 +7863,7 @@
       <c r="G202" s="62"/>
       <c r="H202" s="62"/>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="47" t="s">
         <v>79</v>
       </c>
@@ -7857,7 +7885,7 @@
       <c r="G203" s="63"/>
       <c r="H203" s="63"/>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="50" t="s">
         <v>295</v>
       </c>
@@ -7883,7 +7911,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="50" t="s">
         <v>298</v>
       </c>
@@ -7905,7 +7933,7 @@
       <c r="G205" s="62"/>
       <c r="H205" s="62"/>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="50" t="s">
         <v>301</v>
       </c>
@@ -7927,7 +7955,7 @@
       <c r="G206" s="62"/>
       <c r="H206" s="62"/>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="50" t="s">
         <v>304</v>
       </c>
@@ -7949,7 +7977,7 @@
       <c r="G207" s="62"/>
       <c r="H207" s="62"/>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="50" t="s">
         <v>436</v>
       </c>
@@ -7971,7 +7999,7 @@
       <c r="G208" s="63"/>
       <c r="H208" s="63"/>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="50" t="s">
         <v>439</v>
       </c>
@@ -7997,7 +8025,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="50" t="s">
         <v>442</v>
       </c>
@@ -8019,7 +8047,7 @@
       <c r="G210" s="62"/>
       <c r="H210" s="62"/>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="50" t="s">
         <v>445</v>
       </c>
@@ -8041,7 +8069,7 @@
       <c r="G211" s="62"/>
       <c r="H211" s="62"/>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="50" t="s">
         <v>648</v>
       </c>
@@ -8063,7 +8091,7 @@
       <c r="G212" s="62"/>
       <c r="H212" s="62"/>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="50" t="s">
         <v>651</v>
       </c>
@@ -8085,7 +8113,7 @@
       <c r="G213" s="63"/>
       <c r="H213" s="63"/>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="26" t="s">
         <v>152</v>
       </c>
@@ -8104,14 +8132,14 @@
       <c r="F214" s="53" t="s">
         <v>700</v>
       </c>
-      <c r="G214" s="64" t="s">
+      <c r="G214" s="73" t="s">
         <v>721</v>
       </c>
-      <c r="H214" s="64" t="s">
+      <c r="H214" s="73" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="26" t="s">
         <v>157</v>
       </c>
@@ -8130,10 +8158,10 @@
       <c r="F215" s="53" t="s">
         <v>700</v>
       </c>
-      <c r="G215" s="64"/>
-      <c r="H215" s="64"/>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G215" s="73"/>
+      <c r="H215" s="73"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="26" t="s">
         <v>160</v>
       </c>
@@ -8152,10 +8180,10 @@
       <c r="F216" s="53" t="s">
         <v>700</v>
       </c>
-      <c r="G216" s="64"/>
-      <c r="H216" s="64"/>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G216" s="73"/>
+      <c r="H216" s="73"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="26" t="s">
         <v>163</v>
       </c>
@@ -8174,10 +8202,10 @@
       <c r="F217" s="53" t="s">
         <v>700</v>
       </c>
-      <c r="G217" s="64"/>
-      <c r="H217" s="64"/>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G217" s="73"/>
+      <c r="H217" s="73"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="26" t="s">
         <v>680</v>
       </c>
@@ -8203,7 +8231,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="26" t="s">
         <v>683</v>
       </c>
@@ -8225,7 +8253,7 @@
       <c r="G219" s="62"/>
       <c r="H219" s="62"/>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="26" t="s">
         <v>686</v>
       </c>
@@ -8247,7 +8275,7 @@
       <c r="G220" s="62"/>
       <c r="H220" s="62"/>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="26" t="s">
         <v>689</v>
       </c>
@@ -8269,7 +8297,7 @@
       <c r="G221" s="63"/>
       <c r="H221" s="63"/>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="32" t="s">
         <v>229</v>
       </c>
@@ -8295,7 +8323,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="32" t="s">
         <v>233</v>
       </c>
@@ -8317,7 +8345,7 @@
       <c r="G223" s="62"/>
       <c r="H223" s="62"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="32" t="s">
         <v>236</v>
       </c>
@@ -8339,7 +8367,7 @@
       <c r="G224" s="62"/>
       <c r="H224" s="62"/>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="32" t="s">
         <v>239</v>
       </c>
@@ -8361,7 +8389,7 @@
       <c r="G225" s="63"/>
       <c r="H225" s="63"/>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="32" t="s">
         <v>242</v>
       </c>
@@ -8380,14 +8408,14 @@
       <c r="F226" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="G226" s="64" t="s">
+      <c r="G226" s="73" t="s">
         <v>715</v>
       </c>
       <c r="H226" s="61" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="32" t="s">
         <v>245</v>
       </c>
@@ -8406,10 +8434,10 @@
       <c r="F227" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="G227" s="64"/>
+      <c r="G227" s="73"/>
       <c r="H227" s="62"/>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="32" t="s">
         <v>248</v>
       </c>
@@ -8428,10 +8456,10 @@
       <c r="F228" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="G228" s="64"/>
+      <c r="G228" s="73"/>
       <c r="H228" s="62"/>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="32" t="s">
         <v>251</v>
       </c>
@@ -8450,11 +8478,92 @@
       <c r="F229" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="G229" s="64"/>
+      <c r="G229" s="73"/>
       <c r="H229" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="97">
+    <mergeCell ref="G84:G87"/>
+    <mergeCell ref="H84:H87"/>
+    <mergeCell ref="G88:G91"/>
+    <mergeCell ref="H88:H91"/>
+    <mergeCell ref="G135:G140"/>
+    <mergeCell ref="H135:H140"/>
+    <mergeCell ref="G119:G123"/>
+    <mergeCell ref="H119:H123"/>
+    <mergeCell ref="G124:G129"/>
+    <mergeCell ref="H124:H129"/>
+    <mergeCell ref="G130:G134"/>
+    <mergeCell ref="H130:H134"/>
+    <mergeCell ref="G56:G60"/>
+    <mergeCell ref="H56:H60"/>
+    <mergeCell ref="G31:G35"/>
+    <mergeCell ref="H31:H35"/>
+    <mergeCell ref="G36:G40"/>
+    <mergeCell ref="H36:H40"/>
+    <mergeCell ref="H47:H50"/>
+    <mergeCell ref="G51:G55"/>
+    <mergeCell ref="H51:H55"/>
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="H66:H68"/>
+    <mergeCell ref="G185:G189"/>
+    <mergeCell ref="G190:G193"/>
+    <mergeCell ref="H185:H189"/>
+    <mergeCell ref="H190:H193"/>
+    <mergeCell ref="G69:G72"/>
+    <mergeCell ref="H69:H72"/>
+    <mergeCell ref="G73:G76"/>
+    <mergeCell ref="H73:H76"/>
+    <mergeCell ref="G103:G107"/>
+    <mergeCell ref="H103:H107"/>
+    <mergeCell ref="G108:G113"/>
+    <mergeCell ref="H108:H113"/>
+    <mergeCell ref="G114:G118"/>
+    <mergeCell ref="H114:H118"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G6:G11"/>
+    <mergeCell ref="H6:H11"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="G218:G221"/>
+    <mergeCell ref="H218:H221"/>
+    <mergeCell ref="G16:G22"/>
+    <mergeCell ref="H16:H22"/>
+    <mergeCell ref="G23:G30"/>
+    <mergeCell ref="G92:G97"/>
+    <mergeCell ref="G98:G102"/>
+    <mergeCell ref="H92:H97"/>
+    <mergeCell ref="H98:H102"/>
+    <mergeCell ref="G141:G147"/>
+    <mergeCell ref="H141:H147"/>
+    <mergeCell ref="G61:G65"/>
+    <mergeCell ref="H61:H65"/>
+    <mergeCell ref="H23:H30"/>
+    <mergeCell ref="G41:G46"/>
+    <mergeCell ref="H41:H46"/>
+    <mergeCell ref="G204:G208"/>
+    <mergeCell ref="G209:G213"/>
+    <mergeCell ref="H204:H208"/>
+    <mergeCell ref="H209:H213"/>
+    <mergeCell ref="G214:G217"/>
+    <mergeCell ref="H214:H217"/>
+    <mergeCell ref="G226:G229"/>
+    <mergeCell ref="H226:H229"/>
+    <mergeCell ref="G167:G171"/>
+    <mergeCell ref="H167:H171"/>
+    <mergeCell ref="G172:G174"/>
+    <mergeCell ref="H172:H174"/>
+    <mergeCell ref="G175:G179"/>
+    <mergeCell ref="H175:H179"/>
+    <mergeCell ref="G180:G184"/>
+    <mergeCell ref="H180:H184"/>
+    <mergeCell ref="G194:G198"/>
+    <mergeCell ref="G199:G203"/>
+    <mergeCell ref="H194:H198"/>
+    <mergeCell ref="H199:H203"/>
+    <mergeCell ref="G222:G225"/>
+    <mergeCell ref="H222:H225"/>
     <mergeCell ref="G164:G166"/>
     <mergeCell ref="H164:H166"/>
     <mergeCell ref="B1:H1"/>
@@ -8471,87 +8580,6 @@
     <mergeCell ref="G81:G83"/>
     <mergeCell ref="H81:H83"/>
     <mergeCell ref="G47:G50"/>
-    <mergeCell ref="G226:G229"/>
-    <mergeCell ref="H226:H229"/>
-    <mergeCell ref="G167:G171"/>
-    <mergeCell ref="H167:H171"/>
-    <mergeCell ref="G172:G174"/>
-    <mergeCell ref="H172:H174"/>
-    <mergeCell ref="G175:G179"/>
-    <mergeCell ref="H175:H179"/>
-    <mergeCell ref="G180:G184"/>
-    <mergeCell ref="H180:H184"/>
-    <mergeCell ref="G194:G198"/>
-    <mergeCell ref="G199:G203"/>
-    <mergeCell ref="H194:H198"/>
-    <mergeCell ref="H199:H203"/>
-    <mergeCell ref="G222:G225"/>
-    <mergeCell ref="H222:H225"/>
-    <mergeCell ref="G204:G208"/>
-    <mergeCell ref="G209:G213"/>
-    <mergeCell ref="H204:H208"/>
-    <mergeCell ref="H209:H213"/>
-    <mergeCell ref="G214:G217"/>
-    <mergeCell ref="H214:H217"/>
-    <mergeCell ref="G218:G221"/>
-    <mergeCell ref="H218:H221"/>
-    <mergeCell ref="G16:G22"/>
-    <mergeCell ref="H16:H22"/>
-    <mergeCell ref="G23:G30"/>
-    <mergeCell ref="G92:G97"/>
-    <mergeCell ref="G98:G102"/>
-    <mergeCell ref="H92:H97"/>
-    <mergeCell ref="H98:H102"/>
-    <mergeCell ref="G141:G147"/>
-    <mergeCell ref="H141:H147"/>
-    <mergeCell ref="G61:G65"/>
-    <mergeCell ref="H61:H65"/>
-    <mergeCell ref="H23:H30"/>
-    <mergeCell ref="G41:G46"/>
-    <mergeCell ref="H41:H46"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G6:G11"/>
-    <mergeCell ref="H6:H11"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="H66:H68"/>
-    <mergeCell ref="G185:G189"/>
-    <mergeCell ref="G190:G193"/>
-    <mergeCell ref="H185:H189"/>
-    <mergeCell ref="H190:H193"/>
-    <mergeCell ref="G69:G72"/>
-    <mergeCell ref="H69:H72"/>
-    <mergeCell ref="G73:G76"/>
-    <mergeCell ref="H73:H76"/>
-    <mergeCell ref="G103:G107"/>
-    <mergeCell ref="H103:H107"/>
-    <mergeCell ref="G108:G113"/>
-    <mergeCell ref="H108:H113"/>
-    <mergeCell ref="G114:G118"/>
-    <mergeCell ref="H114:H118"/>
-    <mergeCell ref="G56:G60"/>
-    <mergeCell ref="H56:H60"/>
-    <mergeCell ref="G31:G35"/>
-    <mergeCell ref="H31:H35"/>
-    <mergeCell ref="G36:G40"/>
-    <mergeCell ref="H36:H40"/>
-    <mergeCell ref="H47:H50"/>
-    <mergeCell ref="G51:G55"/>
-    <mergeCell ref="H51:H55"/>
-    <mergeCell ref="G84:G87"/>
-    <mergeCell ref="H84:H87"/>
-    <mergeCell ref="G88:G91"/>
-    <mergeCell ref="H88:H91"/>
-    <mergeCell ref="G135:G140"/>
-    <mergeCell ref="H135:H140"/>
-    <mergeCell ref="G119:G123"/>
-    <mergeCell ref="H119:H123"/>
-    <mergeCell ref="G124:G129"/>
-    <mergeCell ref="H124:H129"/>
-    <mergeCell ref="G130:G134"/>
-    <mergeCell ref="H130:H134"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
